--- a/reports/ssh/results/cross.xlsx
+++ b/reports/ssh/results/cross.xlsx
@@ -609,46 +609,46 @@
         <v>0.9968245967741935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9943548387096774</v>
+        <v>0.9956881720430109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9966666666666666</v>
+        <v>0.996032258064516</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9689479638009051</v>
+        <v>0.9761764705882353</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9576129032258066</v>
+        <v>0.9665161290322581</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9590215053763442</v>
+        <v>0.9626989247311829</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9537903225806451</v>
+        <v>0.9572983870967743</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9579247311827959</v>
+        <v>0.9638924731182797</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9864516129032259</v>
+        <v>0.964215053763441</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9966817496229261</v>
+        <v>0.9961010558069381</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9963440860215055</v>
+        <v>0.9976774193548387</v>
       </c>
       <c r="P2" t="n">
-        <v>0.992741935483871</v>
+        <v>0.9917526881720431</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9936491935483872</v>
+        <v>0.993296370967742</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9896989247311828</v>
+        <v>0.9876881720430108</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.992720430107527</v>
       </c>
       <c r="T2" t="n">
         <v>0.9937669683257918</v>
@@ -666,25 +666,25 @@
         <v>0.9840826612903225</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9804408602150539</v>
+        <v>0.9794408602150538</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9966774193548386</v>
+        <v>0.9834408602150537</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9930430107526882</v>
+        <v>0.9897204301075269</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9884731182795699</v>
+        <v>0.9891182795698924</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9888810483870968</v>
+        <v>0.9876008064516129</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.986720430107527</v>
+        <v>0.9863870967741937</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9966774193548386</v>
+        <v>0.9873978494623656</v>
       </c>
     </row>
     <row r="3">
@@ -706,46 +706,46 @@
         <v>0.9968328445747801</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9952124384236454</v>
+        <v>0.9955572660098523</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9965739710789765</v>
+        <v>0.9959712180200222</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9783442944758309</v>
+        <v>0.9834452553977114</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9587344425315212</v>
+        <v>0.9672922105421533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9602075444176391</v>
+        <v>0.9637199559956791</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9567823178873938</v>
+        <v>0.9601380591575088</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9589716863841301</v>
+        <v>0.9647527394060061</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9871636909895923</v>
+        <v>0.965866902378304</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9971073381504213</v>
+        <v>0.9972558471649345</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9967943548387097</v>
+        <v>0.9977620967741936</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9918140737182729</v>
+        <v>0.9918982792328177</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9946124842899036</v>
+        <v>0.9936469766792349</v>
       </c>
       <c r="R3" t="n">
-        <v>0.987748183607889</v>
+        <v>0.9873779839151087</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9927899054505006</v>
       </c>
       <c r="T3" t="n">
         <v>0.9956493683301182</v>
@@ -763,25 +763,25 @@
         <v>0.9852845259315848</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9808120295999886</v>
+        <v>0.9797299277937488</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9965517241379309</v>
+        <v>0.9840108748778104</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9932655180840666</v>
+        <v>0.9899931320996395</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9889040667586684</v>
+        <v>0.989549228048991</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9897072404719464</v>
+        <v>0.9884566295237548</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9868681784474331</v>
+        <v>0.9864987203193546</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.9965517241379309</v>
+        <v>0.9878622922776148</v>
       </c>
     </row>
     <row r="4">
@@ -806,43 +806,43 @@
         <v>0.9988235294117647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.999375</v>
+        <v>0.9988235294117647</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9676471264850597</v>
+        <v>0.9719933511076002</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9453990675217456</v>
+        <v>0.955343487394958</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9446381394663128</v>
+        <v>0.9499763747604305</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9402667514374171</v>
+        <v>0.9432520885547201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9469257703081232</v>
+        <v>0.9541661998132587</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9756316649466805</v>
+        <v>0.940969021819254</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9967852062588904</v>
+        <v>0.9959743954480796</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9938235294117647</v>
+        <v>0.9956985294117646</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9914338235294118</v>
+        <v>0.9896691176470589</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9919281045751634</v>
+        <v>0.9901307189542484</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9931985294117647</v>
+        <v>0.9925735294117647</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.9906985294117646</v>
       </c>
       <c r="T4" t="n">
         <v>0.9914501951344056</v>
@@ -860,25 +860,25 @@
         <v>0.9717251461988304</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9690052790346908</v>
+        <v>0.9689576599870717</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0.9691911764705883</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9869852941176471</v>
+        <v>0.9826838235294119</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9785580065359477</v>
+        <v>0.9798080065359477</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9802218782249742</v>
+        <v>0.9795968782249743</v>
       </c>
       <c r="AD4" t="n">
         <v>0.9832671568627451</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0.9766544117647059</v>
       </c>
     </row>
     <row r="5">
@@ -900,46 +900,46 @@
         <v>0.9938602941176471</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9913333333333333</v>
+        <v>0.9926666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.9934166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9897372372372374</v>
+        <v>0.9955705705705705</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9748749999999999</v>
+        <v>0.9814166666666668</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9782916666666668</v>
+        <v>0.9796250000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9761764705882353</v>
+        <v>0.979889705882353</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9735833333333335</v>
+        <v>0.9775416666666668</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.9940833333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9980630630630631</v>
+        <v>0.9986186186186186</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9927083333333334</v>
+        <v>0.9947083333333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9963602941176471</v>
+        <v>0.9975367647058824</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9880000000000001</v>
+        <v>0.9833333333333334</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.9953749999999999</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -957,25 +957,25 @@
         <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.992</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.9933333333333334</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="AB5" t="n">
         <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0.9981617647058824</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.9913333333333334</v>
+        <v>0.9906666666666668</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9933333333333334</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reports/ssh/results/cross.xlsx
+++ b/reports/ssh/results/cross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,147 +446,122 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DT_CC</t>
+          <t>DT_GAN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DT_IF</t>
+          <t>DT_borderline</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DT_LOF</t>
+          <t>DT_mix</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>DT_MD</t>
+          <t>DT_smote</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DT_NM</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>LR_GAN</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LR_CC</t>
+          <t>LR_borderline</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LR_IF</t>
+          <t>LR_mix</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LR_LOF</t>
+          <t>LR_smote</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>LR_MD</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>LR_NM</t>
+          <t>RF_GAN</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RF_borderline</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>RF_CC</t>
+          <t>RF_mix</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>RF_IF</t>
+          <t>RF_smote</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>RF_LOF</t>
+          <t>XGB</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>RF_MD</t>
+          <t>XGBRF</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>RF_NM</t>
+          <t>XGBRF_GAN</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>XGB</t>
+          <t>XGBRF_borderline</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF</t>
+          <t>XGBRF_mix</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_CC</t>
+          <t>XGBRF_smote</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_IF</t>
+          <t>XGB_GAN</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_LOF</t>
+          <t>XGB_borderline</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_MD</t>
+          <t>XGB_mix</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>XGBRF_NM</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_CC</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_IF</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_LOF</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_MD</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>XGB_NM</t>
+          <t>XGB_smote</t>
         </is>
       </c>
     </row>
@@ -597,94 +572,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9976508295625943</v>
+        <v>0.9949170437405732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993333333333334</v>
+        <v>0.9793061840120665</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9960322580645162</v>
+        <v>0.9949170437405732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9968245967741935</v>
+        <v>0.9865120663650075</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9956881720430109</v>
+        <v>0.9937443438914028</v>
       </c>
       <c r="G2" t="n">
-        <v>0.996032258064516</v>
+        <v>0.9695135746606336</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9761764705882353</v>
+        <v>0.953125942684766</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9665161290322581</v>
+        <v>0.9695135746606336</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9626989247311829</v>
+        <v>0.956628959276018</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9572983870967743</v>
+        <v>0.9654147812971341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9638924731182797</v>
+        <v>0.9910143288084464</v>
       </c>
       <c r="M2" t="n">
-        <v>0.964215053763441</v>
+        <v>0.9920060331825039</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9961010558069381</v>
+        <v>0.9910143288084464</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9976774193548387</v>
+        <v>0.9935520361990952</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9917526881720431</v>
+        <v>0.9904374057315234</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.993296370967742</v>
+        <v>0.9900452488687783</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9876881720430108</v>
+        <v>0.9882880844645551</v>
       </c>
       <c r="S2" t="n">
-        <v>0.992720430107527</v>
+        <v>0.974819004524887</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9937669683257918</v>
+        <v>0.9882880844645551</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9902450980392158</v>
+        <v>0.9828355957767723</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9834408602150537</v>
+        <v>0.9837895927601811</v>
       </c>
       <c r="W2" t="n">
-        <v>0.983483870967742</v>
+        <v>0.9857730015082957</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9840826612903225</v>
+        <v>0.9900452488687783</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9794408602150538</v>
+        <v>0.9822398190045248</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9834408602150537</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.9897204301075269</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.9891182795698924</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.9876008064516129</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.9863870967741937</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.9873978494623656</v>
+        <v>0.9904336349924585</v>
       </c>
     </row>
     <row r="3">
@@ -694,94 +654,79 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9983251377945571</v>
+        <v>0.9964110855018632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999375</v>
+        <v>0.9856732707221607</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9959489710789766</v>
+        <v>0.9964110855018632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968328445747801</v>
+        <v>0.9904835287908463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9955572660098523</v>
+        <v>0.9955698738483805</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9959712180200222</v>
+        <v>0.9790702185804565</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9834452553977114</v>
+        <v>0.9667951616241459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9672922105421533</v>
+        <v>0.9790702185804565</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9637199559956791</v>
+        <v>0.969621457301387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9601380591575088</v>
+        <v>0.9757742084524709</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9647527394060061</v>
+        <v>0.9936899288445303</v>
       </c>
       <c r="M3" t="n">
-        <v>0.965866902378304</v>
+        <v>0.9944083624776517</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9972558471649345</v>
+        <v>0.9936899288445303</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9977620967741936</v>
+        <v>0.9954938497826401</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9918982792328177</v>
+        <v>0.9932659609438378</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9936469766792349</v>
+        <v>0.9930121097132146</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9873779839151087</v>
+        <v>0.9917977488928148</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9927899054505006</v>
+        <v>0.9826675685418657</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9956493683301182</v>
+        <v>0.9917977488928148</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9931983748709056</v>
+        <v>0.9880205463919483</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9840108748778104</v>
+        <v>0.9885143447241544</v>
       </c>
       <c r="W3" t="n">
-        <v>0.984105679661894</v>
+        <v>0.9899140834161722</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9852845259315848</v>
+        <v>0.9930121097132146</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9797299277937488</v>
+        <v>0.9874457104994824</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9840108748778104</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.9899931320996395</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.989549228048991</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.9884566295237548</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.9864987203193546</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.9878622922776148</v>
+        <v>0.9932479297025313</v>
       </c>
     </row>
     <row r="4">
@@ -791,94 +736,79 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994736842105263</v>
+        <v>0.9959668879405722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9731287383392646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9959668879405722</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9881796773638879</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9959668879405722</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9988235294117647</v>
+        <v>0.9599527683850533</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9719933511076002</v>
+        <v>0.9671735764332609</v>
       </c>
       <c r="I4" t="n">
-        <v>0.955343487394958</v>
+        <v>0.9599527683850533</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9499763747604305</v>
+        <v>0.9611548902779553</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9432520885547201</v>
+        <v>0.9668776179983612</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9541661998132587</v>
+        <v>0.9903338865180971</v>
       </c>
       <c r="M4" t="n">
-        <v>0.940969021819254</v>
+        <v>0.9901130685341212</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9959743954480796</v>
+        <v>0.9903338865180971</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9956985294117646</v>
+        <v>0.9916927453769558</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9896691176470589</v>
+        <v>0.9903616065458172</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9901307189542484</v>
+        <v>0.9889960304433988</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9925735294117647</v>
+        <v>0.9866201018832598</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9906985294117646</v>
+        <v>0.9663162169796196</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9914501951344056</v>
+        <v>0.9866201018832598</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9866351168982748</v>
+        <v>0.9817688466582556</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9691911764705883</v>
+        <v>0.9868381808644966</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9693300653594773</v>
+        <v>0.988775530736057</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9717251461988304</v>
+        <v>0.9889960304433988</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9689576599870717</v>
+        <v>0.9860035514114461</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9691911764705883</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.9826838235294119</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.9798080065359477</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.9795968782249743</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.9832671568627451</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.9766544117647059</v>
+        <v>0.9908455824245297</v>
       </c>
     </row>
     <row r="5">
@@ -888,94 +818,79 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.996951951951952</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9988888888888888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.996951951951952</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9930555555555555</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9952927927927928</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9994444444444445</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9672897897897899</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9994444444444445</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9789564564564566</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9855780780780782</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.9972297297297297</v>
       </c>
-      <c r="C5" t="n">
+      <c r="M5" t="n">
+        <v>0.9988888888888888</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9972297297297297</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9994444444444445</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9963963963963964</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9972297297297297</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9972297297297297</v>
+      </c>
+      <c r="S5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.993375</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9938602941176471</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9926666666666667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9934166666666667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9955705705705705</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9814166666666668</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9796250000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.979889705882353</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9775416666666668</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9940833333333333</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.9986186186186186</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.9947083333333333</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.9975367647058824</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9833333333333334</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9953749999999999</v>
-      </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0.9972297297297297</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0.9947222222222223</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.9905705705705707</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.991388888888889</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0.9972297297297297</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.992</v>
+        <v>0.9891741741741741</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.9980000000000001</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.9981617647058824</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.9906666666666668</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
+        <v>0.9958408408408408</v>
       </c>
     </row>
   </sheetData>

--- a/reports/ssh/results/cross.xlsx
+++ b/reports/ssh/results/cross.xlsx
@@ -1,46 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\undersampling_data\reports\ssh\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16950"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,50 +420,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN_CC</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN_KM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN_NM</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_borderline_CC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DT_borderline_KM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DT_borderline_NM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DT_mix_CC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DT_mix_KM</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DT_mix_NM</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DT_smote_CC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DT_smote_KM</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DT_smote_NM</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN_CC</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN_KM</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN_NM</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LR_borderline_CC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LR_borderline_KM</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>LR_borderline_NM</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LR_mix_CC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LR_mix_KM</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>LR_mix_NM</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>LR_smote_CC</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>LR_smote_KM</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>LR_smote_NM</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN_CC</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN_KM</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN_NM</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>RF_borderline_CC</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>RF_borderline_KM</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>RF_borderline_NM</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>RF_mix_CC</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>RF_mix_KM</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>RF_mix_NM</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>RF_smote_CC</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>RF_smote_KM</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>RF_smote_NM</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_GAN_CC</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_GAN_KM</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_GAN_NM</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_borderline_CC</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_borderline_KM</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_borderline_NM</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_mix_CC</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_mix_KM</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_mix_NM</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_smote_CC</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_smote_KM</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>XGBRF_smote_NM</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN_CC</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN_KM</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_GAN_NM</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_borderline_CC</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_borderline_KM</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_borderline_NM</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_mix_CC</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_mix_KM</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_mix_NM</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_smote_CC</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_smote_KM</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>XGB_smote_NM</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.983774193548387</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9768494623655916</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9616559139784948</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9831182795698926</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9860752688172044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.996688172043011</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9784408602150539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9708817204301076</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9933655913978495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9851182795698926</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9884301075268818</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.996688172043011</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9410215053763443</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9396774193548388</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9426774193548388</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9502580645161293</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9555806451612904</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9771075268817205</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9399784946236562</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9327419354838711</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.9681612903225806</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9565161290322581</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9525913978494625</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9728064516129032</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9837956989247312</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.985741935483871</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9695483870967743</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9854731182795701</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9873978494623656</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.9940430107526882</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9877634408602151</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9890645161290322</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9910645161290325</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.9890537634408603</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.9890645161290322</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9937204301075269</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.9725053763440861</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.9771612903225807</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.9748279569892475</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.9801827956989249</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.9811182795698926</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9867634408602152</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9732043010752689</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.9695483870967743</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9867526881720431</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9771505376344086</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9781397849462365</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.9900752688172044</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.9831290322580645</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.9815053763440861</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.9787741935483871</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9838172043010753</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.9841075268817204</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.9870967741935485</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.9777741935483871</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.9818172043010753</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.9854193548387097</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.9880215053763441</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.9887634408602151</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.9897526881720431</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9840600161795935</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9772576957401763</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9635713925978928</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9830321942610597</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9857379098469198</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9967937438905181</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.978270090843964</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9708530916799256</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9933684565341963</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9851480933105369</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9883455011340163</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9967937438905181</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9409093198881281</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9396517554922729</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9432553976945214</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.953101323323343</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.952189404588737</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9780439486139285</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9406185233962748</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9310502135223886</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9690756673586617</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9581443469641877</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.9505281742574567</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9734480393785586</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9833145099091984</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9858560732463683</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.9708052354170509</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.9857354522100075</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.9872093331214579</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9942706356736244</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.9879107546851281</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9887946395465862</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.9912110787585334</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.9891695233761419</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.9889558769002597</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.9939106793743891</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.9731968424323247</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.9765175623103878</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.9758922890725711</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.9808616044961822</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.980559086816039</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.9870391663642907</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.973975802651259</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.969408255515777</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.987014833772522</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9775803183190558</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.9778205810689126</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.9904393795641425</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.983033950260591</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.9816659667052179</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.9786032605478231</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.9842131787845082</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.9837788349488851</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.9874264021818658</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.9777313440883094</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.9817023467137893</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.9856779316590627</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.9881960902927256</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.9886316542189735</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.9901167989189813</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9804142156862745</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9767156862745098</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9376825581109637</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9884229691876751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.993452380952381</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9937867647058823</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9778244900524312</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9734924136321195</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9937450980392157</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9892344771241831</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.988735294117647</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9937867647058823</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.946031408177306</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9400210622710623</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9397373051784816</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9206597437220503</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9951428571428571</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9619256535947713</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9331594843065431</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9478475005386771</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9547540849673203</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9402990871787312</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9755928409825469</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.9603976423902896</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9913504901960783</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.983813725490196</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.9531870915032681</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.9816176470588235</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9922500000000001</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.9889624183006535</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9846511437908496</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.9949583333333334</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.9889526143790849</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.986970588235294</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.9924166666666667</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.989485294117647</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.9625596405228758</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.985985294117647</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.9592650068799449</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.9696584967320263</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.9934107142857144</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.9814158496732027</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.9623521241830066</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.9741760037348273</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.9814893790849674</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.9700330974495063</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.9877009803921569</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.9815727124183006</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.9857450980392156</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.9789428104575163</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.9811014239028946</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.9772843137254903</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.9922916666666667</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.9808643790849674</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.9777484827264239</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.9857810457516339</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.9809379084967321</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.9851936274509805</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.9923750000000001</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.9815727124183006</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.98875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9795000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9933333333333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9789166666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9787916666666667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9807083333333334</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9702500000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.993375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.98225</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9888333333333335</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9404166666666669</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.9429583333333335</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.95025</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9900833333333334</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9157500000000001</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9960000000000001</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9529583333333334</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9190833333333335</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9854583333333334</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9787916666666667</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9304166666666667</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.9880833333333334</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9767916666666667</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.9887500000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.99075</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.99075</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9827916666666668</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.9834166666666667</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.9940416666666667</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.9860833333333335</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.99875</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.9860833333333335</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.9687916666666666</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.9946666666666667</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.9934166666666667</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.9689166666666668</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.9934166666666667</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.9874583333333335</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.9662500000000002</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.993375</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9867083333333335</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.9695416666666667</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.9815</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.9854583333333334</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.9774583333333333</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.992125</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.9761666666666667</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.9947499999999999</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.979375</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.9787916666666667</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.991375</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.9855000000000002</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.999375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
